--- a/data/hotels_by_city/Dallas/Dallas_shard_433.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_433.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>pakclu</t>
+  </si>
+  <si>
     <t>06/14/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Monica B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r585654320-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>Great hotel in a great location, quite rooms and the best breakfast in Texas. The rooms are quiet and dark, the exercise room is nice to have, the pool was great to cool off and refreshing. I would highly recommend.More</t>
   </si>
   <si>
+    <t>James S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r583951386-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>I am very pleased with this hotel, it has all the amenities one would need at a hotel. Perfect for my family.  We only stayed overnight and it was comfortable and everyone slept well. Breakfast had fresh fruit, eggs and many other things.  The kids enjoyed the Cereal, they had the little individual servings that my kids love.  The bed were soft, the room was quiet and the  staff is amazing. More</t>
   </si>
   <si>
+    <t>Joseph C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r576214594-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t>Hotel was very clean and modern keeping up with the new Hyatt place layout.   The staff was very friendly at the front desk, and management was very nice.  Only problem I had at this hotel was, housekeeping wasn't cleaning my room because they of a pet sign on the door.  Management was very quick and effective on resolving the issue.   I would recommend staying at this hotel.More</t>
   </si>
   <si>
+    <t>Jonnell S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r572981885-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -270,6 +285,9 @@
     <t>Recently stayed at this location for business. The room was very nice, clean and quiet. I thought the bed was quite comfortable. The staff was very welcoming and friendly, quickly and cheerfully accommodating any request. The free breakfast is one of the best I've had from any hotel that offers it. I appreciated the scrambled eggs (which were actually very well-cooked and tasty, hard to do in large quantities), crisp bacon that wasn't greasy, and a good variety of additional sides. I would stay here again.More</t>
   </si>
   <si>
+    <t>S1509GLtoddb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r542126405-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -294,6 +312,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>Jaimin P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r540840363-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -303,6 +324,9 @@
     <t>11/12/2017</t>
   </si>
   <si>
+    <t>Matthew S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r538647627-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -315,6 +339,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>V6023OOannas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r535499610-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -339,6 +366,9 @@
     <t>I enjoyed my time at the hotel. I was in town for a conference and it was the perfect place to stay. The breakfast was delicious and had quite the variety of fresh foods! Staff was friendly and cooperative! I would definitely stay again! More</t>
   </si>
   <si>
+    <t>Whitney F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r533544631-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -360,6 +390,9 @@
     <t>This is an absolutely beautiful hotel! The rooms are spacious and the beds are comfy. The staff was very kind and helpful and the free breakfast was delicious. I would definitely stay here again if I come back to Texas.More</t>
   </si>
   <si>
+    <t>Nancy D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r530862830-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -378,6 +411,9 @@
     <t>We decided to stay at the Hyatt Place Dallas/Allen for two nights while attending the Texas State Fair. The check in was easy, staff was friendly and attentive, the hotel was different from any we'd stayed in, contemporary design in furniture and style, I liked it, my husband said he felt like he was in a corporate building... not a negative thing, its design is just modern and contemporary in furnishings and color, not warm and home like.Our bed was very comfortable, we slept great both nights. Our room was on the 3rd floor that was not close to the busy highway side so it was quiet. We thought the breakfast was really good, food was hot and again served with a clean, modern presentation from the dishes to the breakfast eating area. Enjoyed the IHOP right next door too, shopping and a grocery store close by is also a plus!!More</t>
   </si>
   <si>
+    <t>John B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r530226077-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -399,6 +435,9 @@
     <t>Excellent staff, excellent stay, excellent grounds, excellent rooms.  Zack and Anna were absolutely fantastic. Great ambassadors to the hotel/property. Accommodated every one of our needs in a very professional manner.  Other hotel staff were also outstanding. Smiles on all faces. Brand new property and the freshness and the cleanliness was outstanding.  Plenty of restaurants to walk to from this location. Great stay for sure. More</t>
   </si>
   <si>
+    <t>D5608QAroberts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r529130364-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -441,6 +480,9 @@
     <t>Had the opportunity to switch my existing reservations and stay at the brand new Hyatt Place in Dallas/Allen. It has only been open 3 months but they have it all together. Beautiful spacious room. Courteous and dedicated staff. Great value!More</t>
   </si>
   <si>
+    <t>Richardson96</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r528177108-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -459,12 +501,18 @@
     <t>The hotel was super clean, the staff was extremely friendly, and the rooms were spacious and fully stocked with towels, cleaning supplies,etc.. The only down fall was the parking. In the front and on side parking was limited there was a back parking lot but the lighting was poor and there was no close door to enter the building if needed. They have a full bar located in the lobby and the interior was up to date and new looking but while checking the computer shut off and took about 10 minutes to come back online.More</t>
   </si>
   <si>
+    <t>Ed E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r528200226-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
     <t>528200226</t>
   </si>
   <si>
+    <t>Mark Andre J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r527902928-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -480,6 +528,9 @@
     <t>The room was spacious and nice. It is a new hotel (3 months old) and I did not experience anything not working. The staff are nice and pleasant. I was right across from the elevator and was concerned about the possible noise but I didn't need to be as they have a divider wall and that seemed to block out any noise.</t>
   </si>
   <si>
+    <t>francess465</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r525321406-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -495,6 +546,9 @@
     <t>Responded September 27, 2017</t>
   </si>
   <si>
+    <t>lorijTN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r524453800-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -513,6 +567,9 @@
     <t>Super nice staff. Clean and comfortable hotel. We were kindly greeted when we arrived. We enjoyed the happy hour at the bar. The breakfast had a lot of selections. Cheesy potatoes were amazing. Fresh Starbucks coffee. More</t>
   </si>
   <si>
+    <t>162gabriellen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r524269523-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -540,6 +597,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>949kristies</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r504977742-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -567,6 +627,9 @@
     <t xml:space="preserve">Perfect stay! Pulled up Hotels.com app and booked this room at gas station 2 miles away. Went to hotel and checked right in. Perfect for 1am in the morning while traveling through state. The sofa bed was even comfortable for my 6ft tall son. </t>
   </si>
   <si>
+    <t>Dianna A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r504078281-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -574,6 +637,9 @@
   </si>
   <si>
     <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>500local</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r503251586-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
@@ -1093,43 +1159,47 @@
       <c r="A2" t="n">
         <v>65336</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>160547</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1153,50 +1223,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65336</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>7587</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1218,56 +1292,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65336</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>9507</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -1289,56 +1367,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65336</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>10883</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -1354,56 +1436,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65336</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>160548</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>78</v>
       </c>
-      <c r="K6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>74</v>
-      </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1421,54 +1507,58 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65336</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>160549</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -1486,54 +1576,58 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="X7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65336</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>160550</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -1555,54 +1649,58 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="X8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65336</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>22731</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1624,56 +1722,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="X9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Y9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65336</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>160551</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -1695,56 +1797,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="X10" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65336</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>90965</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1756,56 +1862,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="X11" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65336</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>5337</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O12" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -1827,56 +1937,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="X12" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65336</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>508</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -1898,56 +2012,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="X13" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65336</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>160552</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -1969,13 +2087,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="X14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Y14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -1988,37 +2106,37 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
+        <v>150</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>137</v>
       </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>125</v>
-      </c>
       <c r="O15" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2040,56 +2158,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="X15" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="Y15" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65336</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>160553</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O16" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -2111,41 +2233,45 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="X16" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="Y16" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>65336</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>160554</v>
+      </c>
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="K17" t="s"/>
       <c r="L17" t="s"/>
@@ -2153,10 +2279,10 @@
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2177,51 +2303,52 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
-      <c r="Y17" t="s"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>65336</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>160555</v>
+      </c>
+      <c r="C18" t="s">
+        <v>164</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="J18" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="K18" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -2245,48 +2372,52 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>65336</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>160556</v>
+      </c>
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="J19" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O19" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2308,56 +2439,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="X19" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="Y19" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>65336</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>160557</v>
+      </c>
+      <c r="C20" t="s">
+        <v>176</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="J20" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="K20" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2379,54 +2514,58 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="X20" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="Y20" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>65336</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>160558</v>
+      </c>
+      <c r="C21" t="s">
+        <v>183</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="J21" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -2446,13 +2585,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="X21" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="Y21" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
@@ -2465,37 +2604,37 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="J22" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="K22" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2509,50 +2648,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>65336</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>160559</v>
+      </c>
+      <c r="C23" t="s">
+        <v>193</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="J23" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="K23" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="L23" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -2576,7 +2719,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24">
@@ -2589,37 +2732,37 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="J24" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="K24" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="O24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -2643,35 +2786,39 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>65336</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>160560</v>
+      </c>
+      <c r="C25" t="s">
+        <v>203</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="J25" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s"/>
@@ -2679,10 +2826,10 @@
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="O25" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -2703,51 +2850,52 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
-      <c r="Y25" t="s"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>65336</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>160561</v>
+      </c>
+      <c r="C26" t="s">
+        <v>207</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="J26" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="K26" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="L26" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="O26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -2771,7 +2919,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_433.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_433.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="425">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,255 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>pakclu</t>
+    <t>08/23/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r609392630-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>30155</t>
+  </si>
+  <si>
+    <t>10522005</t>
+  </si>
+  <si>
+    <t>609392630</t>
+  </si>
+  <si>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>Superior in every way</t>
+  </si>
+  <si>
+    <t>Superb people in every position in this hotel. Very service oriented with the personnel to insure a very pleasant stay with no surprises. Great breakfast. Very nice room and extremely well maintained. Well located to every amenity. Great restaurants and shopping nearby.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r606185145-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>606185145</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>On the border of Allen and Plano off 75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent hotel.  Easy access to many things.  Wonderful breakfast selection.  My son loved the pool.  Rooms were spacious with comfortable bed and pull out couch.  Very clean hotel.  The hotel is on the frontage road for 75 but our room faced the pool and we did not hear the traffic.  There is IHOP and On the Border adjacent to  the hotel if you didn't want to order food in the lobby.  We were visiting family in Plano and this was an excellent location with very easy access to everything.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r605668368-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>605668368</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Nice Hotel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can’t say enough about this hotel.  It is very modern and super clean (room, breakfast area, workout room) The room was very spacious and big. Close by to food places. I love this hotel and I would definitely stay here again. </t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r604769639-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>604769639</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel near lots of Restaurants.</t>
+  </si>
+  <si>
+    <t>This was a really nice and convenient Hotel close to my work location.  Lots of restaurants nearby.  Everything was good.  I don't know what else to write in here but this thing is forcing me to have 200 characters so there you go!  Awesome Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r603513924-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>603513924</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>House Hunting</t>
+  </si>
+  <si>
+    <t>While looking for a residents in the area, I stayed here. The hotel had only been opened for a year. The room was very well maintained every day during my stay. The staff was very accommodating to my every need. The bed was comfortable and the price was reasonable. The morning breakfast was very tasty and filling. They had a shuttle that would drop you off and  pick you up within a five mile radius. There were plenty of shops and restaurants within that radius. There was also a 24 hour gym. It was soundproof.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r600310088-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>600310088</t>
+  </si>
+  <si>
+    <t>07/27/2018</t>
+  </si>
+  <si>
+    <t>Great stay outside of Dallas</t>
+  </si>
+  <si>
+    <t>This was our second stay at a Hyatt Place, booked through Expedia. Check-in took some time due to the clerk being by herself and helping another customer. Their Free-Buy-Borrow program is great, but unfortunately they did not have the item that I was looking for. Not a big deal. Room was very clean and spacious. So comfortable. Did not appreciate the noise that others felt. Maybe we were too tired. Complimentary breakfast was delicious. They had almond milk which tasted okay. But then, I've never seen almond milk at the hotels that offer free breakfast. Would return again.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r597142216-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>597142216</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable and Convenient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have stayed here multiple times and will absolutely stay here again. Friendly staff at a brand new, beautiful hotel. Large oversized rooms that are modern and comfortable. Breakfast includes many options with something for everyone!  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r596511918-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>596511918</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traveled with the family for a business meeting and stayed a couple more days to see family in Ft Worth after. It was a great place to stay.  My only complaint is the amount of highway noise in the room. Use a white noise app on your phone to drown it out at night. We stayed in a room with a king bed and sofa bed. I tried the sofa bed the kids slept on and it was actually comfortable!  Couldn’t feel the bars or springs like most sofa beds. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r595718427-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>595718427</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>Awesome hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome hotel And I highly recommend staying here Weather on vacation or business adventure this hotel really knows how to take care of their guest  The food was excellent the rooms are clean and the staff is friendly </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r594522935-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>594522935</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Room was cleaned late</t>
+  </si>
+  <si>
+    <t>Room was never cleaned while we were out. We returned to the room around 3:30 to be interrupted by the cleaning staff. It was frustrating when I wanted to rest from a long hot day of baseball to leave my room while it was being cleaned!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r591036350-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>591036350</t>
+  </si>
+  <si>
+    <t>06/26/2018</t>
+  </si>
+  <si>
+    <t>Weekend Getaway with Fur Kids</t>
+  </si>
+  <si>
+    <t>When my husband and I needed a break from our home contractors, we camped out for a few days at Hyatt Place in Allen. It was great! The place is new, the decor is modern, and the staff is superb. It’s about the nicest hotel that allows our two dogs- golden retriever and Boston terrier. It’s soundproof enough that even on a weekend night, we never heard any other people or dogs- except for an occasional door closing in the hallway.They don’t have a full restaurant but a limited menu for late nite eating is available. The free am breakfast is pretty good.I highly recommend any Hyatt Place.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r589334926-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>589334926</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>My wife and I lived in Allen and had our AC go out on a Sunday afternoon. We booked a room online and picked the hotel because it was nearby. After a frustrating day it was very nice to be greeted by a very friendly person at the front desk. Hotel décor is very nice and the room as great</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r588346701-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>588346701</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>We went to Allen for a wedding and stayed a couple of nights.  The only thing we didn't like was the pocket door into the bathroom.  It was rather loud opening and shutting the door, and has a frost covered glass the length of the door which light and sound bleeds though.  Not the best thing when the other people in the room are trying to sleep and the bathroom light is shining through the door.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r587398274-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>587398274</t>
   </si>
   <si>
     <t>06/14/2018</t>
   </si>
   <si>
+    <t>Nice updated hotel but very noisy and uncomfortable</t>
+  </si>
+  <si>
+    <t>The hotel itself was very nice but everything else was not. I stayed for two nights and I was not able to sleep well at all!! The traffic is incredibly annoying and there was a dog across the hall barking all night. I called and complained but it didn't help much. Not only was the dog and traffic horrible but house keeping decided to bang on my door with a key card at 8:15 am. I was trying to sleep in from a long day at work but I guess no one here cares! So basically I wouldn't recommend this hotel although it is new and clean, it is not worth the money if you want a hotel you can sleep comfortably.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel itself was very nice but everything else was not. I stayed for two nights and I was not able to sleep well at all!! The traffic is incredibly annoying and there was a dog across the hall barking all night. I called and complained but it didn't help much. Not only was the dog and traffic horrible but house keeping decided to bang on my door with a key card at 8:15 am. I was trying to sleep in from a long day at work but I guess no one here cares! So basically I wouldn't recommend this hotel although it is new and clean, it is not worth the money if you want a hotel you can sleep comfortably.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r586373952-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
-    <t>30155</t>
-  </si>
-  <si>
-    <t>10522005</t>
-  </si>
-  <si>
     <t>586373952</t>
   </si>
   <si>
@@ -174,15 +408,6 @@
     <t>The lobby, food service area, bar, common areas and guest room (mine) were spotless.The front desk folks, food/bar servers and all other staff I met, were exceedingly friendly  and engaging.  Reasonable price.  Good value.</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Monica B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r585654320-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -198,21 +423,15 @@
     <t>Great hotel in a great location, quite rooms and the best breakfast in Texas. The rooms are quiet and dark, the exercise room is nice to have, the pool was great to cool off and refreshing. I would highly recommend.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Jonathan P, General Manager at Hyatt Place Dallas/Allen, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
+    <t>Jonathan P, General Manager at Hyatt Place Dallas/Allen, responded to this reviewResponded June 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2018</t>
   </si>
   <si>
     <t>Great hotel in a great location, quite rooms and the best breakfast in Texas. The rooms are quiet and dark, the exercise room is nice to have, the pool was great to cool off and refreshing. I would highly recommend.More</t>
   </si>
   <si>
-    <t>James S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r583951386-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -234,9 +453,6 @@
     <t>I am very pleased with this hotel, it has all the amenities one would need at a hotel. Perfect for my family.  We only stayed overnight and it was comfortable and everyone slept well. Breakfast had fresh fruit, eggs and many other things.  The kids enjoyed the Cereal, they had the little individual servings that my kids love.  The bed were soft, the room was quiet and the  staff is amazing. More</t>
   </si>
   <si>
-    <t>Joseph C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r576214594-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -258,9 +474,6 @@
     <t>Hotel was very clean and modern keeping up with the new Hyatt place layout.   The staff was very friendly at the front desk, and management was very nice.  Only problem I had at this hotel was, housekeeping wasn't cleaning my room because they of a pet sign on the door.  Management was very quick and effective on resolving the issue.   I would recommend staying at this hotel.More</t>
   </si>
   <si>
-    <t>Jonnell S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r572981885-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -285,7 +498,349 @@
     <t>Recently stayed at this location for business. The room was very nice, clean and quiet. I thought the bed was quite comfortable. The staff was very welcoming and friendly, quickly and cheerfully accommodating any request. The free breakfast is one of the best I've had from any hotel that offers it. I appreciated the scrambled eggs (which were actually very well-cooked and tasty, hard to do in large quantities), crisp bacon that wasn't greasy, and a good variety of additional sides. I would stay here again.More</t>
   </si>
   <si>
-    <t>S1509GLtoddb</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r570560140-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>570560140</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Central location</t>
+  </si>
+  <si>
+    <t>This hotel is sleek and modern! The lobby is well lit and open with minimalist decor all tying in the modern vibe. They have a work station where one can choose on a Mac or Windows computer. The rooms are really spacious and the design utilizes the space well. There was 4 of us in the room and we were all comfortable. Very clean! The only reason I gave this place a 4 star instead of a 5 is their breakfast menu selection. It could use a little bit more variety. Then again, there is always Ihop next door. But other than that, I would recommend this place, if ever you are in need of a hotel around the Allen,Tx area. It is easy to find and is very accessible from interstate 75. MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is sleek and modern! The lobby is well lit and open with minimalist decor all tying in the modern vibe. They have a work station where one can choose on a Mac or Windows computer. The rooms are really spacious and the design utilizes the space well. There was 4 of us in the room and we were all comfortable. Very clean! The only reason I gave this place a 4 star instead of a 5 is their breakfast menu selection. It could use a little bit more variety. Then again, there is always Ihop next door. But other than that, I would recommend this place, if ever you are in need of a hotel around the Allen,Tx area. It is easy to find and is very accessible from interstate 75. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r570107463-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>570107463</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>Fresh Hotel on a busy freeway</t>
+  </si>
+  <si>
+    <t>This hotel is relatively new and that is a great plus for the area.  The hotel sits off of 75N which is an extremely busy freeway all the time.  We stayed in a ground floor king suite and the noise was not a factor at all.  Our stay was short but the hotel was staffed with pleasant employees that greeted us as guests.  We topped off the stay with a clean food breakfast offering that satisfied and tasted great.   MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is relatively new and that is a great plus for the area.  The hotel sits off of 75N which is an extremely busy freeway all the time.  We stayed in a ground floor king suite and the noise was not a factor at all.  Our stay was short but the hotel was staffed with pleasant employees that greeted us as guests.  We topped off the stay with a clean food breakfast offering that satisfied and tasted great.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r567087623-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>567087623</t>
+  </si>
+  <si>
+    <t>03/17/2018</t>
+  </si>
+  <si>
+    <t>Super clean and accommodating hotel</t>
+  </si>
+  <si>
+    <t>We so enjoyed this beautiful hotel!  The decor was very pretty and the entire hotel was very clean and inviting. The breakfast was delicious with a great variety. Staff was friendly and we appreciated that they greeted us every time we walked by the front desk.  It makes such a difference to have friendly and helpful staff. MoreShow less</t>
+  </si>
+  <si>
+    <t>Jonathan P, General Manager at Hyatt Place Dallas/Allen, responded to this reviewResponded March 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2018</t>
+  </si>
+  <si>
+    <t>We so enjoyed this beautiful hotel!  The decor was very pretty and the entire hotel was very clean and inviting. The breakfast was delicious with a great variety. Staff was friendly and we appreciated that they greeted us every time we walked by the front desk.  It makes such a difference to have friendly and helpful staff. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r559277054-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>559277054</t>
+  </si>
+  <si>
+    <t>02/08/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Great hotel, clean with friendly employees everywhere. Breakfast selection basic and small but never had to wait for food. Next door to IHOP, Japanese restaurant in case you crave something else. Recommend for family trip or business adventure MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Jonathan P, General Manager at Hyatt Place Dallas/Allen, responded to this reviewResponded February 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2018</t>
+  </si>
+  <si>
+    <t>Great hotel, clean with friendly employees everywhere. Breakfast selection basic and small but never had to wait for food. Next door to IHOP, Japanese restaurant in case you crave something else. Recommend for family trip or business adventure More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r557627080-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>557627080</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>Nice oasis in the Dallas jungle</t>
+  </si>
+  <si>
+    <t>Hyatt has built a nice brand of hotels.  I loved how modern the room was.  I liked the community microwave they had in the pantry.  I felt safe there. The staff was friendly and let me check in early as I had requested in my reservation. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Hyatt has built a nice brand of hotels.  I loved how modern the room was.  I liked the community microwave they had in the pantry.  I felt safe there. The staff was friendly and let me check in early as I had requested in my reservation. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r556393524-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>556393524</t>
+  </si>
+  <si>
+    <t>01/25/2018</t>
+  </si>
+  <si>
+    <t>Super clean room</t>
+  </si>
+  <si>
+    <t>Concierge was super friendly and polite and the room was incredibly clean.  Wonderful stay!  You could tell the staff takes the extra time and effort to care for the rooms.  We both had a great night sleep!MoreShow less</t>
+  </si>
+  <si>
+    <t>Jonathan P, Manager at Hyatt Place Dallas/Allen, responded to this reviewResponded January 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2018</t>
+  </si>
+  <si>
+    <t>Concierge was super friendly and polite and the room was incredibly clean.  Wonderful stay!  You could tell the staff takes the extra time and effort to care for the rooms.  We both had a great night sleep!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r555115495-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>555115495</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Must Stay</t>
+  </si>
+  <si>
+    <t>My husband and I frequent Heart's typically because they usually have the most comfortable beds. This particular site was the cleanest and best maintained we have every had a stay in. The breakfast had some more unique and delicious food items than we typically find. MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I frequent Heart's typically because they usually have the most comfortable beds. This particular site was the cleanest and best maintained we have every had a stay in. The breakfast had some more unique and delicious food items than we typically find. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r553777832-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>553777832</t>
+  </si>
+  <si>
+    <t>01/14/2018</t>
+  </si>
+  <si>
+    <t>Hotel=Great..... Staff= Meh</t>
+  </si>
+  <si>
+    <t>Came here for a little get away. At check in it took the Receptionist about 5 minuets to realize she had 2 customers waiting to check in. Later in the night there was a domestic fight on the 4th floor between a male and female. I was woken up from the banging on the door and the loud yelling. This lasted about 20-30 minuets. I called the front desk to advise them of the situation and there was no answer. Extremely unattended.... After that I called the police and they came and resolved the situation without the assistance of the hotel staff. Kinda disappointing that the staff was so inattentive on this visit. The hotel itself, gets no other complains from me. Nice, clean, and well maintained. MoreShow less</t>
+  </si>
+  <si>
+    <t>Came here for a little get away. At check in it took the Receptionist about 5 minuets to realize she had 2 customers waiting to check in. Later in the night there was a domestic fight on the 4th floor between a male and female. I was woken up from the banging on the door and the loud yelling. This lasted about 20-30 minuets. I called the front desk to advise them of the situation and there was no answer. Extremely unattended.... After that I called the police and they came and resolved the situation without the assistance of the hotel staff. Kinda disappointing that the staff was so inattentive on this visit. The hotel itself, gets no other complains from me. Nice, clean, and well maintained. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r552409184-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>552409184</t>
+  </si>
+  <si>
+    <t>01/08/2018</t>
+  </si>
+  <si>
+    <t>Clean, new hotel with all amenities &amp; great staff</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for two nights and found it to meet any need or expectation that we had, plus some.  It is new and clean, the rooms are large and well-equipped, the staff is very capable and friendly, it offers amenities ranging from a business center to an exercise center, an in-house restaurant and full bar, a very good free breakfast, good free WiFi, etc. etc.  The location is nearby all of the shopping in Allen and is also right next door to an IHOP restaurant if you want pancakes.  Ask for a room to the rear of the hotel, away from the traffic noise of US-75.  Recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for two nights and found it to meet any need or expectation that we had, plus some.  It is new and clean, the rooms are large and well-equipped, the staff is very capable and friendly, it offers amenities ranging from a business center to an exercise center, an in-house restaurant and full bar, a very good free breakfast, good free WiFi, etc. etc.  The location is nearby all of the shopping in Allen and is also right next door to an IHOP restaurant if you want pancakes.  Ask for a room to the rear of the hotel, away from the traffic noise of US-75.  Recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r551917080-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>551917080</t>
+  </si>
+  <si>
+    <t>01/05/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r551036894-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>551036894</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>The best experience</t>
+  </si>
+  <si>
+    <t>I had a wonderful time visiting with family and friends. This Hyatt Place was the first time I have stayed at this brand and I would recommend to everyone. The management and staff were caring, kind and helpful. And the breakfast was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had a wonderful time visiting with family and friends. This Hyatt Place was the first time I have stayed at this brand and I would recommend to everyone. The management and staff were caring, kind and helpful. And the breakfast was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r547949017-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>547949017</t>
+  </si>
+  <si>
+    <t>12/18/2017</t>
+  </si>
+  <si>
+    <t>Great Place to Stay in Dallas</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay. The hotel itself is very clean. All the  staff very friendly, Including front desk, housekeeping, and food service. They were always smiling and cheerful. And the food very good. We would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay. The hotel itself is very clean. All the  staff very friendly, Including front desk, housekeeping, and food service. They were always smiling and cheerful. And the food very good. We would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r547560304-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>547560304</t>
+  </si>
+  <si>
+    <t>12/16/2017</t>
+  </si>
+  <si>
+    <t>Extended-stay</t>
+  </si>
+  <si>
+    <t>We had an extended stay while our house was being remodeled. The entire staff made us feel very welcome and they were very accommodating. The hotel was very clean and they were very attentive to any of our needs were request. I would highly recommend any one in need of students day to check out this location. MoreShow less</t>
+  </si>
+  <si>
+    <t>We had an extended stay while our house was being remodeled. The entire staff made us feel very welcome and they were very accommodating. The hotel was very clean and they were very attentive to any of our needs were request. I would highly recommend any one in need of students day to check out this location. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r547295171-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>547295171</t>
+  </si>
+  <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r545846687-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>545846687</t>
+  </si>
+  <si>
+    <t>12/07/2017</t>
+  </si>
+  <si>
+    <t>Nice new property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Hyatt place has everything you need.   Easy parking.   The beds are really comfortable. The hotel is clean and in a good location in allen, TX.   The staff was helpful.   The bar stayed open late.    I would stay here again.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r545889229-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>545889229</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r544670664-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>544670664</t>
+  </si>
+  <si>
+    <t>12/02/2017</t>
+  </si>
+  <si>
+    <t>Great experience!</t>
+  </si>
+  <si>
+    <t>The staff was very inviting, welcoming and went above and beyond with their service and making me comfortable.  The Room was great!  Very clean &amp; peaceful.  The breakfast was hot, the service area was very clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>The staff was very inviting, welcoming and went above and beyond with their service and making me comfortable.  The Room was great!  Very clean &amp; peaceful.  The breakfast was hot, the service area was very clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r544152980-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>544152980</t>
+  </si>
+  <si>
+    <t>11/29/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r543689518-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>543689518</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>Good Location, New Property</t>
+  </si>
+  <si>
+    <t>Property has been open only 4 months, very comfortable rooms, decent gym, friendly and helpful staff, plenty of parking. Very close to Allen Outlet mall.  Right off of 75 so you can hear the road noise even if your room is at the far end. Breakfast was good and varied day to day.MoreShow less</t>
+  </si>
+  <si>
+    <t>Property has been open only 4 months, very comfortable rooms, decent gym, friendly and helpful staff, plenty of parking. Very close to Allen Outlet mall.  Right off of 75 so you can hear the road noise even if your room is at the far end. Breakfast was good and varied day to day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r542757618-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>542757618</t>
+  </si>
+  <si>
+    <t>11/22/2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r542126405-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
@@ -297,24 +852,6 @@
     <t>11/19/2017</t>
   </si>
   <si>
-    <t>MoreShow less</t>
-  </si>
-  <si>
-    <t>November 2017</t>
-  </si>
-  <si>
-    <t>Jonathan P, Manager at Hyatt Place Dallas/Allen, responded to this reviewResponded January 27, 2018</t>
-  </si>
-  <si>
-    <t>Responded January 27, 2018</t>
-  </si>
-  <si>
-    <t>More</t>
-  </si>
-  <si>
-    <t>Jaimin P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r540840363-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -324,9 +861,6 @@
     <t>11/12/2017</t>
   </si>
   <si>
-    <t>Matthew S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r538647627-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -336,12 +870,6 @@
     <t>11/05/2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>V6023OOannas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r535499610-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -360,15 +888,9 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>I enjoyed my time at the hotel. I was in town for a conference and it was the perfect place to stay. The breakfast was delicious and had quite the variety of fresh foods! Staff was friendly and cooperative! I would definitely stay again! More</t>
   </si>
   <si>
-    <t>Whitney F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r533544631-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -384,15 +906,9 @@
     <t>This is an absolutely beautiful hotel! The rooms are spacious and the beds are comfy. The staff was very kind and helpful and the free breakfast was delicious. I would definitely stay here again if I come back to Texas.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>This is an absolutely beautiful hotel! The rooms are spacious and the beds are comfy. The staff was very kind and helpful and the free breakfast was delicious. I would definitely stay here again if I come back to Texas.More</t>
   </si>
   <si>
-    <t>Nancy D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r530862830-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -411,9 +927,6 @@
     <t>We decided to stay at the Hyatt Place Dallas/Allen for two nights while attending the Texas State Fair. The check in was easy, staff was friendly and attentive, the hotel was different from any we'd stayed in, contemporary design in furniture and style, I liked it, my husband said he felt like he was in a corporate building... not a negative thing, its design is just modern and contemporary in furnishings and color, not warm and home like.Our bed was very comfortable, we slept great both nights. Our room was on the 3rd floor that was not close to the busy highway side so it was quiet. We thought the breakfast was really good, food was hot and again served with a clean, modern presentation from the dishes to the breakfast eating area. Enjoyed the IHOP right next door too, shopping and a grocery store close by is also a plus!!More</t>
   </si>
   <si>
-    <t>John B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r530226077-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -435,9 +948,6 @@
     <t>Excellent staff, excellent stay, excellent grounds, excellent rooms.  Zack and Anna were absolutely fantastic. Great ambassadors to the hotel/property. Accommodated every one of our needs in a very professional manner.  Other hotel staff were also outstanding. Smiles on all faces. Brand new property and the freshness and the cleanliness was outstanding.  Plenty of restaurants to walk to from this location. Great stay for sure. More</t>
   </si>
   <si>
-    <t>D5608QAroberts</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r529130364-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -480,9 +990,6 @@
     <t>Had the opportunity to switch my existing reservations and stay at the brand new Hyatt Place in Dallas/Allen. It has only been open 3 months but they have it all together. Beautiful spacious room. Courteous and dedicated staff. Great value!More</t>
   </si>
   <si>
-    <t>Richardson96</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r528177108-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -501,18 +1008,12 @@
     <t>The hotel was super clean, the staff was extremely friendly, and the rooms were spacious and fully stocked with towels, cleaning supplies,etc.. The only down fall was the parking. In the front and on side parking was limited there was a back parking lot but the lighting was poor and there was no close door to enter the building if needed. They have a full bar located in the lobby and the interior was up to date and new looking but while checking the computer shut off and took about 10 minutes to come back online.More</t>
   </si>
   <si>
-    <t>Ed E</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r528200226-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
     <t>528200226</t>
   </si>
   <si>
-    <t>Mark Andre J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r527902928-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -528,9 +1029,6 @@
     <t>The room was spacious and nice. It is a new hotel (3 months old) and I did not experience anything not working. The staff are nice and pleasant. I was right across from the elevator and was concerned about the possible noise but I didn't need to be as they have a divider wall and that seemed to block out any noise.</t>
   </si>
   <si>
-    <t>francess465</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r525321406-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -546,9 +1044,6 @@
     <t>Responded September 27, 2017</t>
   </si>
   <si>
-    <t>lorijTN</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r524453800-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -567,9 +1062,6 @@
     <t>Super nice staff. Clean and comfortable hotel. We were kindly greeted when we arrived. We enjoyed the happy hour at the bar. The breakfast had a lot of selections. Cheesy potatoes were amazing. Fresh Starbucks coffee. More</t>
   </si>
   <si>
-    <t>162gabriellen</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r524269523-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -579,6 +1071,99 @@
     <t>09/13/2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r523653321-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>523653321</t>
+  </si>
+  <si>
+    <t>09/11/2017</t>
+  </si>
+  <si>
+    <t>Very Clean</t>
+  </si>
+  <si>
+    <t>My wife and I just wanted a one night get away and This Hotel was a great choice.  Located in the right place for shopping and easy to get to on the access road.  The room was very neat and clean as well as the bathroom.  We didn't hear any other noises such as road noise or other guest.  The lobby is super clean and the staff was extremely attentive to our needs.  Starbucks coffee is a plus.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I just wanted a one night get away and This Hotel was a great choice.  Located in the right place for shopping and easy to get to on the access road.  The room was very neat and clean as well as the bathroom.  We didn't hear any other noises such as road noise or other guest.  The lobby is super clean and the staff was extremely attentive to our needs.  Starbucks coffee is a plus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r521510977-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>521510977</t>
+  </si>
+  <si>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t>Best hotel in Allen</t>
+  </si>
+  <si>
+    <t>Outstanding in every aspect. Hotel is new and value is great. Breakfast is fullfilling and service is great. If you need two beds, note that they are full size (not queen).  The only issue is road noise. Ask for a room away from the freeway. MoreShow less</t>
+  </si>
+  <si>
+    <t>Outstanding in every aspect. Hotel is new and value is great. Breakfast is fullfilling and service is great. If you need two beds, note that they are full size (not queen).  The only issue is road noise. Ask for a room away from the freeway. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r520870532-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>520870532</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>New property</t>
+  </si>
+  <si>
+    <t>Great place if you are in the area.New property.  Complementary breakfast.  Friendly staff.  Close to premium outlet shopping and many places to eat.  Sound carries from nearby highway, but room is comfy and has a nice size sectional sofa. MoreShow less</t>
+  </si>
+  <si>
+    <t>Great place if you are in the area.New property.  Complementary breakfast.  Friendly staff.  Close to premium outlet shopping and many places to eat.  Sound carries from nearby highway, but room is comfy and has a nice size sectional sofa. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r510385499-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>510385499</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>I was staying in Allen, TX for a seminar and found this Hyatt Place very nice!  The hotel was well maintained and the room was clean and the bed was comfortable.  The staff was patient and kind with me and helped me. Also, the included breakfast was amazing!  I would definitely stay there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>I was staying in Allen, TX for a seminar and found this Hyatt Place very nice!  The hotel was well maintained and the room was clean and the bed was comfortable.  The staff was patient and kind with me and helped me. Also, the included breakfast was amazing!  I would definitely stay there again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r507585541-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>507585541</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Best stay of the summer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facility was brand new.  Staff was exceptional they were very friendly and helpful. Breakfast was hot and had a variety and was restocked consistently. Great location next to restaurants and shops.  Workout center and pool was spacious.  Very family friendly.  </t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r505194163-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -594,12 +1179,6 @@
     <t xml:space="preserve">We enjoyed staying here at this new hotel in Allen, TX. The only downside, is the restroom sink was pretty small, no make-up mirror, and loud traffic noise coming from the freeway. Of course if we stay here again, we will request a westside room to eliminate the traffic sounds!!! </t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
-    <t>949kristies</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r504977742-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -627,9 +1206,6 @@
     <t xml:space="preserve">Perfect stay! Pulled up Hotels.com app and booked this room at gas station 2 miles away. Went to hotel and checked right in. Perfect for 1am in the morning while traveling through state. The sofa bed was even comfortable for my 6ft tall son. </t>
   </si>
   <si>
-    <t>Dianna A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r504078281-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -639,9 +1215,6 @@
     <t>07/20/2017</t>
   </si>
   <si>
-    <t>500local</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r503251586-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
   </si>
   <si>
@@ -655,6 +1228,71 @@
   </si>
   <si>
     <t>Everything was clean, brand new. No complains about house keeping at all. The only thing that we thought they are missing on is the breakfast, but they might get it right in a few months or weeks. Ruby at the front desk, very helpful and understanding.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r500587999-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>500587999</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Great Stay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent service, friendly staff and inviting atmosphere. Comfortable beds, spacious rooms and complimentary breakfast. Full bar and the cafe at the hotel is very convenient after long day at work. Great place to stay. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r496670805-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>496670805</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>This Place Is Amazing!</t>
+  </si>
+  <si>
+    <t>This is a brand new Hyatt Place and it is so beautiful. Wide open spaces in the lobby with lots of geo metric designs. Many nice areas to sit in the lobby.  Everyone was so friendly. Close to a bike path along Twin Creeks.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r496330341-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>496330341</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>A Great Place to stay when in Dallas or nearby suburbs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were in town for the weekend to attend a family wedding.  About 30 minutes outside of Dallas.  When we arrived the front desk staff was very Friendly and welcoming.  The hotel is well run and maintained.. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d10522005-r496071742-Hyatt_Place_Dallas_Allen-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>496071742</t>
+  </si>
+  <si>
+    <t>New hotel, nice rooms and design, but noisy until 3:30am</t>
+  </si>
+  <si>
+    <t>This is a very new hotel that I stayed at during its first week of business. Everything is new, including the employees. The rooms are well-appointed and the facilities are very nicely decorated.
+NOISE ISSUES: While the majority of the stay was pleasant, the night auditor, Elana, unfortunately chose to allow a large group of about 20 guests (seemed to be a football team) to remain in the lobby seating area drinking their own beer and being very loud until about 3:30am in the morning. The noise carried all the way from the lobby into my second floor room. There is a small bar area near the reception desk, even though that had closed at midnight. There is also a 24-hour I-Hop literally across the parking lot of the hotel within 30 seconds walking distance. When I asked her to address the noise issue, she only said that she would ask them to be quieter, but this had little effect and she was unwilling to take any further action as they continued to be very loud and they were allowed to stay until they left on their own at 3:30am. I don't know if this was the result of poor hotel policy or an employee who did not want to confront a large group of drunk guests, but the end result was not being able to sleep until about 4am. I understand that a new hotel may have some growing...This is a very new hotel that I stayed at during its first week of business. Everything is new, including the employees. The rooms are well-appointed and the facilities are very nicely decorated.NOISE ISSUES: While the majority of the stay was pleasant, the night auditor, Elana, unfortunately chose to allow a large group of about 20 guests (seemed to be a football team) to remain in the lobby seating area drinking their own beer and being very loud until about 3:30am in the morning. The noise carried all the way from the lobby into my second floor room. There is a small bar area near the reception desk, even though that had closed at midnight. There is also a 24-hour I-Hop literally across the parking lot of the hotel within 30 seconds walking distance. When I asked her to address the noise issue, she only said that she would ask them to be quieter, but this had little effect and she was unwilling to take any further action as they continued to be very loud and they were allowed to stay until they left on their own at 3:30am. I don't know if this was the result of poor hotel policy or an employee who did not want to confront a large group of drunk guests, but the end result was not being able to sleep until about 4am. I understand that a new hotel may have some growing pains and I hope that the management takes steps to resolve this issue in the near future.BREAKFAST: The continental breakfast includes some simple hot food items. Nothing fancy, but very good quality, plenty filling enough, and you can't beat free!COMFORT: The beds were great, pillows of good quality, and the a/c was plenty strong for a Texas summer.OVERALL: This would have been a 5-star review as it's a very nice hotel for a very reasonable nightly rate. However, being able to sleep undisturbed is one of the key things we look for in hotels and the management's failure to act on noise issues would make me not able to recommend this hotel to anyone except the deepest of sleepers. Perhaps you will have better luck if you request not to be placed on the 2nd floor.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a very new hotel that I stayed at during its first week of business. Everything is new, including the employees. The rooms are well-appointed and the facilities are very nicely decorated.
+NOISE ISSUES: While the majority of the stay was pleasant, the night auditor, Elana, unfortunately chose to allow a large group of about 20 guests (seemed to be a football team) to remain in the lobby seating area drinking their own beer and being very loud until about 3:30am in the morning. The noise carried all the way from the lobby into my second floor room. There is a small bar area near the reception desk, even though that had closed at midnight. There is also a 24-hour I-Hop literally across the parking lot of the hotel within 30 seconds walking distance. When I asked her to address the noise issue, she only said that she would ask them to be quieter, but this had little effect and she was unwilling to take any further action as they continued to be very loud and they were allowed to stay until they left on their own at 3:30am. I don't know if this was the result of poor hotel policy or an employee who did not want to confront a large group of drunk guests, but the end result was not being able to sleep until about 4am. I understand that a new hotel may have some growing...This is a very new hotel that I stayed at during its first week of business. Everything is new, including the employees. The rooms are well-appointed and the facilities are very nicely decorated.NOISE ISSUES: While the majority of the stay was pleasant, the night auditor, Elana, unfortunately chose to allow a large group of about 20 guests (seemed to be a football team) to remain in the lobby seating area drinking their own beer and being very loud until about 3:30am in the morning. The noise carried all the way from the lobby into my second floor room. There is a small bar area near the reception desk, even though that had closed at midnight. There is also a 24-hour I-Hop literally across the parking lot of the hotel within 30 seconds walking distance. When I asked her to address the noise issue, she only said that she would ask them to be quieter, but this had little effect and she was unwilling to take any further action as they continued to be very loud and they were allowed to stay until they left on their own at 3:30am. I don't know if this was the result of poor hotel policy or an employee who did not want to confront a large group of drunk guests, but the end result was not being able to sleep until about 4am. I understand that a new hotel may have some growing pains and I hope that the management takes steps to resolve this issue in the near future.BREAKFAST: The continental breakfast includes some simple hot food items. Nothing fancy, but very good quality, plenty filling enough, and you can't beat free!COMFORT: The beds were great, pillows of good quality, and the a/c was plenty strong for a Texas summer.OVERALL: This would have been a 5-star review as it's a very nice hotel for a very reasonable nightly rate. However, being able to sleep undisturbed is one of the key things we look for in hotels and the management's failure to act on noise issues would make me not able to recommend this hotel to anyone except the deepest of sleepers. Perhaps you will have better luck if you request not to be placed on the 2nd floor.More</t>
   </si>
 </sst>
 </file>
@@ -1159,118 +1797,100 @@
       <c r="A2" t="n">
         <v>65336</v>
       </c>
-      <c r="B2" t="n">
-        <v>160547</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65336</v>
       </c>
-      <c r="B3" t="n">
-        <v>7587</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
         <v>58</v>
-      </c>
-      <c r="L3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>60</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1291,343 +1911,297 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>61</v>
-      </c>
-      <c r="X3" t="s">
-        <v>62</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65336</v>
       </c>
-      <c r="B4" t="n">
-        <v>9507</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>61</v>
-      </c>
-      <c r="X4" t="s">
-        <v>62</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65336</v>
       </c>
-      <c r="B5" t="n">
-        <v>10883</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>61</v>
-      </c>
-      <c r="X5" t="s">
-        <v>62</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65336</v>
       </c>
-      <c r="B6" t="n">
-        <v>160548</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>86</v>
-      </c>
-      <c r="X6" t="s">
-        <v>87</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65336</v>
       </c>
-      <c r="B7" t="n">
-        <v>160549</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
+      </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>95</v>
-      </c>
-      <c r="X7" t="s">
-        <v>96</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65336</v>
       </c>
-      <c r="B8" t="n">
-        <v>160550</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -1648,59 +2222,53 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>95</v>
-      </c>
-      <c r="X8" t="s">
-        <v>96</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65336</v>
       </c>
-      <c r="B9" t="n">
-        <v>22731</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="K9" t="s">
+        <v>91</v>
+      </c>
       <c r="L9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="O9" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1721,61 +2289,53 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>95</v>
-      </c>
-      <c r="X9" t="s">
-        <v>96</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65336</v>
       </c>
-      <c r="B10" t="n">
-        <v>160551</v>
-      </c>
-      <c r="C10" t="s">
-        <v>107</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="O10" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -1784,7 +2344,7 @@
         <v>5</v>
       </c>
       <c r="R10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1796,201 +2356,177 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>95</v>
-      </c>
-      <c r="X10" t="s">
-        <v>96</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65336</v>
       </c>
-      <c r="B11" t="n">
-        <v>90965</v>
-      </c>
-      <c r="C11" t="s">
-        <v>116</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="O11" t="s">
-        <v>122</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>95</v>
-      </c>
-      <c r="X11" t="s">
-        <v>96</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65336</v>
       </c>
-      <c r="B12" t="n">
-        <v>5337</v>
-      </c>
-      <c r="C12" t="s">
-        <v>124</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O12" t="s">
-        <v>106</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>95</v>
-      </c>
-      <c r="X12" t="s">
-        <v>96</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65336</v>
       </c>
-      <c r="B13" t="n">
-        <v>508</v>
-      </c>
-      <c r="C13" t="s">
-        <v>131</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2011,89 +2547,77 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>95</v>
-      </c>
-      <c r="X13" t="s">
-        <v>96</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65336</v>
       </c>
-      <c r="B14" t="n">
-        <v>160552</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>95</v>
-      </c>
-      <c r="X14" t="s">
-        <v>96</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15">
@@ -2106,393 +2630,368 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="O15" t="s">
-        <v>114</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>151</v>
-      </c>
-      <c r="X15" t="s">
-        <v>152</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65336</v>
       </c>
-      <c r="B16" t="n">
-        <v>160553</v>
-      </c>
-      <c r="C16" t="s">
-        <v>154</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="K16" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="L16" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="O16" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>151</v>
-      </c>
-      <c r="X16" t="s">
-        <v>152</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>65336</v>
       </c>
-      <c r="B17" t="n">
-        <v>160554</v>
-      </c>
-      <c r="C17" t="s">
-        <v>161</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
-      </c>
-      <c r="K17" t="s"/>
-      <c r="L17" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="K17" t="s">
+        <v>133</v>
+      </c>
+      <c r="L17" t="s">
+        <v>134</v>
+      </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>135</v>
+      </c>
+      <c r="X17" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>65336</v>
       </c>
-      <c r="B18" t="n">
-        <v>160555</v>
-      </c>
-      <c r="C18" t="s">
-        <v>164</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="J18" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="K18" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="L18" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="n">
         <v>5</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>135</v>
+      </c>
+      <c r="X18" t="s">
+        <v>136</v>
+      </c>
       <c r="Y18" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>65336</v>
       </c>
-      <c r="B19" t="n">
-        <v>160556</v>
-      </c>
-      <c r="C19" t="s">
-        <v>170</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="J19" t="s">
-        <v>173</v>
-      </c>
-      <c r="K19" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="K19" t="s">
+        <v>148</v>
+      </c>
       <c r="L19" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="O19" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="X19" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="Y19" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>65336</v>
       </c>
-      <c r="B20" t="n">
-        <v>160557</v>
-      </c>
-      <c r="C20" t="s">
-        <v>176</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="K20" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="L20" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2500,12 +2999,8 @@
       <c r="Q20" t="n">
         <v>5</v>
       </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
         <v>5</v>
@@ -2514,84 +3009,74 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="X20" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="Y20" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>65336</v>
       </c>
-      <c r="B21" t="n">
-        <v>160558</v>
-      </c>
-      <c r="C21" t="s">
-        <v>183</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="J21" t="s">
-        <v>186</v>
-      </c>
-      <c r="K21" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="K21" t="s">
+        <v>163</v>
+      </c>
       <c r="L21" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3</v>
-      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>3</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="X21" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="Y21" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22">
@@ -2604,122 +3089,126 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="J22" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="K22" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="L22" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>157</v>
+      </c>
+      <c r="X22" t="s">
+        <v>158</v>
+      </c>
       <c r="Y22" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>65336</v>
       </c>
-      <c r="B23" t="n">
-        <v>160559</v>
-      </c>
-      <c r="C23" t="s">
-        <v>193</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="J23" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="K23" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="L23" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>1</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>177</v>
+      </c>
+      <c r="X23" t="s">
+        <v>178</v>
+      </c>
       <c r="Y23" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24">
@@ -2732,37 +3221,37 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="J24" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="K24" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="L24" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -2783,59 +3272,63 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>186</v>
+      </c>
+      <c r="X24" t="s">
+        <v>187</v>
+      </c>
       <c r="Y24" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>65336</v>
       </c>
-      <c r="B25" t="n">
-        <v>160560</v>
-      </c>
-      <c r="C25" t="s">
-        <v>203</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="J25" t="s">
-        <v>206</v>
-      </c>
-      <c r="K25" t="s"/>
-      <c r="L25" t="s"/>
+        <v>191</v>
+      </c>
+      <c r="K25" t="s">
+        <v>192</v>
+      </c>
+      <c r="L25" t="s">
+        <v>193</v>
+      </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O25" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="P25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R25" t="n">
         <v>5</v>
@@ -2850,76 +3343,2972 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
+      <c r="W25" t="s">
+        <v>186</v>
+      </c>
+      <c r="X25" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>65336</v>
       </c>
-      <c r="B26" t="n">
-        <v>160561</v>
-      </c>
-      <c r="C26" t="s">
-        <v>207</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>197</v>
+      </c>
+      <c r="J26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K26" t="s">
+        <v>199</v>
+      </c>
+      <c r="L26" t="s">
+        <v>200</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>194</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>201</v>
+      </c>
+      <c r="X26" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>204</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>205</v>
+      </c>
+      <c r="J27" t="s">
+        <v>206</v>
+      </c>
+      <c r="K27" t="s">
+        <v>207</v>
+      </c>
+      <c r="L27" t="s">
+        <v>208</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>194</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>201</v>
+      </c>
+      <c r="X27" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>211</v>
+      </c>
+      <c r="J28" t="s">
+        <v>212</v>
+      </c>
+      <c r="K28" t="s">
+        <v>213</v>
+      </c>
+      <c r="L28" t="s">
+        <v>214</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>194</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>186</v>
+      </c>
+      <c r="X28" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>216</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>217</v>
+      </c>
+      <c r="J29" t="s">
+        <v>218</v>
+      </c>
+      <c r="K29" t="s">
+        <v>219</v>
+      </c>
+      <c r="L29" t="s">
+        <v>220</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>194</v>
+      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>201</v>
+      </c>
+      <c r="X29" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>222</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>223</v>
+      </c>
+      <c r="J30" t="s">
+        <v>224</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s">
+        <v>225</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>226</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>201</v>
+      </c>
+      <c r="X30" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>228</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>229</v>
+      </c>
+      <c r="J31" t="s">
+        <v>230</v>
+      </c>
+      <c r="K31" t="s">
+        <v>231</v>
+      </c>
+      <c r="L31" t="s">
+        <v>232</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>226</v>
+      </c>
+      <c r="O31" t="s">
+        <v>58</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>201</v>
+      </c>
+      <c r="X31" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>234</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>235</v>
+      </c>
+      <c r="J32" t="s">
+        <v>236</v>
+      </c>
+      <c r="K32" t="s">
+        <v>237</v>
+      </c>
+      <c r="L32" t="s">
+        <v>238</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>226</v>
+      </c>
+      <c r="O32" t="s">
+        <v>103</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>201</v>
+      </c>
+      <c r="X32" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>241</v>
+      </c>
+      <c r="J33" t="s">
+        <v>242</v>
+      </c>
+      <c r="K33" t="s">
+        <v>243</v>
+      </c>
+      <c r="L33" t="s">
+        <v>244</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>226</v>
+      </c>
+      <c r="O33" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>201</v>
+      </c>
+      <c r="X33" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>246</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>247</v>
+      </c>
+      <c r="J34" t="s">
+        <v>248</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>226</v>
+      </c>
+      <c r="O34" t="s">
+        <v>58</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>249</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>250</v>
+      </c>
+      <c r="J35" t="s">
+        <v>251</v>
+      </c>
+      <c r="K35" t="s">
+        <v>252</v>
+      </c>
+      <c r="L35" t="s">
+        <v>253</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>226</v>
+      </c>
+      <c r="O35" t="s">
+        <v>76</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>254</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>255</v>
+      </c>
+      <c r="J36" t="s">
+        <v>251</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s">
+        <v>225</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>226</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>201</v>
+      </c>
+      <c r="X36" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>256</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>257</v>
+      </c>
+      <c r="J37" t="s">
+        <v>258</v>
+      </c>
+      <c r="K37" t="s">
+        <v>259</v>
+      </c>
+      <c r="L37" t="s">
+        <v>260</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>261</v>
+      </c>
+      <c r="O37" t="s">
+        <v>70</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>201</v>
+      </c>
+      <c r="X37" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>263</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>264</v>
+      </c>
+      <c r="J38" t="s">
+        <v>265</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s">
+        <v>225</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>261</v>
+      </c>
+      <c r="O38" t="s">
+        <v>58</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>201</v>
+      </c>
+      <c r="X38" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>266</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>267</v>
+      </c>
+      <c r="J39" t="s">
+        <v>268</v>
+      </c>
+      <c r="K39" t="s">
+        <v>269</v>
+      </c>
+      <c r="L39" t="s">
+        <v>270</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>261</v>
+      </c>
+      <c r="O39" t="s">
+        <v>58</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>201</v>
+      </c>
+      <c r="X39" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>272</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>273</v>
+      </c>
+      <c r="J40" t="s">
+        <v>274</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s">
+        <v>225</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>261</v>
+      </c>
+      <c r="O40" t="s">
+        <v>103</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>201</v>
+      </c>
+      <c r="X40" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>275</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>276</v>
+      </c>
+      <c r="J41" t="s">
+        <v>277</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s">
+        <v>225</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>261</v>
+      </c>
+      <c r="O41" t="s">
+        <v>70</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>201</v>
+      </c>
+      <c r="X41" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>278</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>279</v>
+      </c>
+      <c r="J42" t="s">
+        <v>280</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s">
+        <v>225</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>261</v>
+      </c>
+      <c r="O42" t="s">
+        <v>70</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>201</v>
+      </c>
+      <c r="X42" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>281</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>282</v>
+      </c>
+      <c r="J43" t="s">
+        <v>283</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s">
+        <v>225</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>261</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>201</v>
+      </c>
+      <c r="X43" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>284</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>285</v>
+      </c>
+      <c r="J44" t="s">
+        <v>286</v>
+      </c>
+      <c r="K44" t="s">
+        <v>287</v>
+      </c>
+      <c r="L44" t="s">
+        <v>288</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>289</v>
+      </c>
+      <c r="O44" t="s">
+        <v>103</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>201</v>
+      </c>
+      <c r="X44" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
         <v>44</v>
       </c>
-      <c r="F26" t="s">
-        <v>208</v>
-      </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>291</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>292</v>
+      </c>
+      <c r="J45" t="s">
+        <v>293</v>
+      </c>
+      <c r="K45" t="s">
+        <v>294</v>
+      </c>
+      <c r="L45" t="s">
+        <v>295</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>289</v>
+      </c>
+      <c r="O45" t="s">
+        <v>76</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>201</v>
+      </c>
+      <c r="X45" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>297</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>298</v>
+      </c>
+      <c r="J46" t="s">
+        <v>299</v>
+      </c>
+      <c r="K46" t="s">
+        <v>300</v>
+      </c>
+      <c r="L46" t="s">
+        <v>301</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>289</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>201</v>
+      </c>
+      <c r="X46" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>303</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>304</v>
+      </c>
+      <c r="J47" t="s">
+        <v>305</v>
+      </c>
+      <c r="K47" t="s">
+        <v>306</v>
+      </c>
+      <c r="L47" t="s">
+        <v>307</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>308</v>
+      </c>
+      <c r="O47" t="s">
+        <v>58</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>201</v>
+      </c>
+      <c r="X47" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
         <v>47</v>
       </c>
-      <c r="I26" t="s">
-        <v>209</v>
-      </c>
-      <c r="J26" t="s">
-        <v>210</v>
-      </c>
-      <c r="K26" t="s">
-        <v>211</v>
-      </c>
-      <c r="L26" t="s">
-        <v>212</v>
-      </c>
-      <c r="M26" t="n">
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>310</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>311</v>
+      </c>
+      <c r="J48" t="s">
+        <v>312</v>
+      </c>
+      <c r="K48" t="s">
+        <v>313</v>
+      </c>
+      <c r="L48" t="s">
+        <v>314</v>
+      </c>
+      <c r="M48" t="n">
         <v>4</v>
       </c>
-      <c r="N26" t="s">
-        <v>192</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="N48" t="s">
+        <v>308</v>
+      </c>
+      <c r="O48" t="s">
+        <v>58</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>201</v>
+      </c>
+      <c r="X48" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>316</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>317</v>
+      </c>
+      <c r="J49" t="s">
+        <v>318</v>
+      </c>
+      <c r="K49" t="s">
+        <v>319</v>
+      </c>
+      <c r="L49" t="s">
+        <v>320</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>308</v>
+      </c>
+      <c r="O49" t="s">
+        <v>103</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>321</v>
+      </c>
+      <c r="X49" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>324</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>325</v>
+      </c>
+      <c r="J50" t="s">
+        <v>326</v>
+      </c>
+      <c r="K50" t="s">
+        <v>327</v>
+      </c>
+      <c r="L50" t="s">
+        <v>328</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>308</v>
+      </c>
+      <c r="O50" t="s">
+        <v>76</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>321</v>
+      </c>
+      <c r="X50" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>330</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>331</v>
+      </c>
+      <c r="J51" t="s">
+        <v>326</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>308</v>
+      </c>
+      <c r="O51" t="s">
+        <v>70</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>332</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>333</v>
+      </c>
+      <c r="J52" t="s">
+        <v>334</v>
+      </c>
+      <c r="K52" t="s">
+        <v>335</v>
+      </c>
+      <c r="L52" t="s">
+        <v>336</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>308</v>
+      </c>
+      <c r="O52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>338</v>
+      </c>
+      <c r="J53" t="s">
+        <v>339</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s">
+        <v>225</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>308</v>
+      </c>
+      <c r="O53" t="s">
+        <v>76</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>340</v>
+      </c>
+      <c r="X53" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>342</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>343</v>
+      </c>
+      <c r="J54" t="s">
+        <v>344</v>
+      </c>
+      <c r="K54" t="s">
+        <v>345</v>
+      </c>
+      <c r="L54" t="s">
+        <v>346</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>308</v>
+      </c>
+      <c r="O54" t="s">
+        <v>70</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>340</v>
+      </c>
+      <c r="X54" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>348</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>349</v>
+      </c>
+      <c r="J55" t="s">
+        <v>350</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s">
+        <v>225</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>308</v>
+      </c>
+      <c r="O55" t="s">
+        <v>58</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>340</v>
+      </c>
+      <c r="X55" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>351</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>352</v>
+      </c>
+      <c r="J56" t="s">
+        <v>353</v>
+      </c>
+      <c r="K56" t="s">
+        <v>354</v>
+      </c>
+      <c r="L56" t="s">
+        <v>355</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>308</v>
+      </c>
+      <c r="O56" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>340</v>
+      </c>
+      <c r="X56" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>357</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>358</v>
+      </c>
+      <c r="J57" t="s">
+        <v>359</v>
+      </c>
+      <c r="K57" t="s">
+        <v>360</v>
+      </c>
+      <c r="L57" t="s">
+        <v>361</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>308</v>
+      </c>
+      <c r="O57" t="s">
+        <v>58</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>340</v>
+      </c>
+      <c r="X57" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>363</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>364</v>
+      </c>
+      <c r="J58" t="s">
+        <v>365</v>
+      </c>
+      <c r="K58" t="s">
+        <v>366</v>
+      </c>
+      <c r="L58" t="s">
+        <v>367</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>308</v>
+      </c>
+      <c r="O58" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>340</v>
+      </c>
+      <c r="X58" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>369</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>370</v>
+      </c>
+      <c r="J59" t="s">
+        <v>371</v>
+      </c>
+      <c r="K59" t="s">
+        <v>372</v>
+      </c>
+      <c r="L59" t="s">
+        <v>373</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>374</v>
+      </c>
+      <c r="O59" t="s">
+        <v>70</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>340</v>
+      </c>
+      <c r="X59" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>376</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>377</v>
+      </c>
+      <c r="J60" t="s">
+        <v>378</v>
+      </c>
+      <c r="K60" t="s">
+        <v>379</v>
+      </c>
+      <c r="L60" t="s">
+        <v>380</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>381</v>
+      </c>
+      <c r="O60" t="s">
+        <v>58</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
         <v>60</v>
       </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
-      <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
-      <c r="Y26" t="s">
-        <v>212</v>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>382</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>383</v>
+      </c>
+      <c r="J61" t="s">
+        <v>384</v>
+      </c>
+      <c r="K61" t="s">
+        <v>385</v>
+      </c>
+      <c r="L61" t="s">
+        <v>386</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>381</v>
+      </c>
+      <c r="O61" t="s">
+        <v>70</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>387</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>388</v>
+      </c>
+      <c r="J62" t="s">
+        <v>389</v>
+      </c>
+      <c r="K62" t="s">
+        <v>390</v>
+      </c>
+      <c r="L62" t="s">
+        <v>391</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>381</v>
+      </c>
+      <c r="O62" t="s">
+        <v>70</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>392</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>393</v>
+      </c>
+      <c r="J63" t="s">
+        <v>389</v>
+      </c>
+      <c r="K63" t="s">
+        <v>394</v>
+      </c>
+      <c r="L63" t="s">
+        <v>395</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>381</v>
+      </c>
+      <c r="O63" t="s">
+        <v>58</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>396</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>397</v>
+      </c>
+      <c r="J64" t="s">
+        <v>398</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s"/>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>381</v>
+      </c>
+      <c r="O64" t="s">
+        <v>52</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>399</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>400</v>
+      </c>
+      <c r="J65" t="s">
+        <v>401</v>
+      </c>
+      <c r="K65" t="s">
+        <v>402</v>
+      </c>
+      <c r="L65" t="s">
+        <v>403</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>381</v>
+      </c>
+      <c r="O65" t="s">
+        <v>58</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>404</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>405</v>
+      </c>
+      <c r="J66" t="s">
+        <v>406</v>
+      </c>
+      <c r="K66" t="s">
+        <v>407</v>
+      </c>
+      <c r="L66" t="s">
+        <v>408</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>381</v>
+      </c>
+      <c r="O66" t="s">
+        <v>70</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>409</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>410</v>
+      </c>
+      <c r="J67" t="s">
+        <v>411</v>
+      </c>
+      <c r="K67" t="s">
+        <v>412</v>
+      </c>
+      <c r="L67" t="s">
+        <v>413</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>414</v>
+      </c>
+      <c r="O67" t="s">
+        <v>70</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>415</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>416</v>
+      </c>
+      <c r="J68" t="s">
+        <v>417</v>
+      </c>
+      <c r="K68" t="s">
+        <v>418</v>
+      </c>
+      <c r="L68" t="s">
+        <v>419</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>414</v>
+      </c>
+      <c r="O68" t="s">
+        <v>58</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>65336</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>420</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>421</v>
+      </c>
+      <c r="J69" t="s">
+        <v>417</v>
+      </c>
+      <c r="K69" t="s">
+        <v>422</v>
+      </c>
+      <c r="L69" t="s">
+        <v>423</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>414</v>
+      </c>
+      <c r="O69" t="s">
+        <v>103</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
